--- a/Test Data/Gallery_RBus_Printers_MZX_Panels.xlsx
+++ b/Test Data/Gallery_RBus_Printers_MZX_Panels.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C17584-6E1A-42CD-818F-DC276C303B3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8807F46-E6DB-40FD-AF43-AAF33C1B43B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
     <sheet name="Belgium" sheetId="11" r:id="rId2"/>
     <sheet name="Czech" sheetId="12" r:id="rId3"/>
+    <sheet name="Swiss" sheetId="13" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="23">
   <si>
     <t>Wg</t>
   </si>
@@ -98,6 +99,12 @@
   </si>
   <si>
     <t>NGC-3475/T1820</t>
+  </si>
+  <si>
+    <t>Switzerland Market</t>
+  </si>
+  <si>
+    <t>NGC-3476/T2656</t>
   </si>
 </sst>
 </file>
@@ -521,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A2CD2B-2CE0-43F6-8953-9B0019F38FA2}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -866,4 +873,121 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D40E4A0-303A-477A-8679-11173BEF0F5E}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_RBus_Printers_MZX_Panels.xlsx
+++ b/Test Data/Gallery_RBus_Printers_MZX_Panels.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8807F46-E6DB-40FD-AF43-AAF33C1B43B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0295D8-B405-4221-B59B-803F0D58C4CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
     <sheet name="Belgium" sheetId="11" r:id="rId2"/>
     <sheet name="Czech" sheetId="12" r:id="rId3"/>
     <sheet name="Swiss" sheetId="13" r:id="rId4"/>
+    <sheet name="Portugal" sheetId="14" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="25">
   <si>
     <t>Wg</t>
   </si>
@@ -105,6 +106,12 @@
   </si>
   <si>
     <t>NGC-3476/T2656</t>
+  </si>
+  <si>
+    <t>NGC-3479/T2462</t>
+  </si>
+  <si>
+    <t>Portugal Market</t>
   </si>
 </sst>
 </file>
@@ -529,7 +536,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -879,7 +886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D40E4A0-303A-477A-8679-11173BEF0F5E}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -990,4 +997,121 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C6D314-84D6-442B-8A48-3E805C62A282}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.88671875" customWidth="1"/>
+    <col min="2" max="2" width="24.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_RBus_Printers_MZX_Panels.xlsx
+++ b/Test Data/Gallery_RBus_Printers_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0295D8-B405-4221-B59B-803F0D58C4CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6301B8C3-F78D-4E5B-B971-C370BE640435}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Czech" sheetId="12" r:id="rId3"/>
     <sheet name="Swiss" sheetId="13" r:id="rId4"/>
     <sheet name="Portugal" sheetId="14" r:id="rId5"/>
+    <sheet name="Slovakia" sheetId="15" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="27">
   <si>
     <t>Wg</t>
   </si>
@@ -112,6 +113,12 @@
   </si>
   <si>
     <t>Portugal Market</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGC-2930/T3228 </t>
+  </si>
+  <si>
+    <t>Slovakia Market</t>
   </si>
 </sst>
 </file>
@@ -1003,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C6D314-84D6-442B-8A48-3E805C62A282}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1114,4 +1121,121 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{671C3DF5-8436-45A1-A351-9B54BD3D53AB}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.88671875" customWidth="1"/>
+    <col min="2" max="2" width="24.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_RBus_Printers_MZX_Panels.xlsx
+++ b/Test Data/Gallery_RBus_Printers_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6301B8C3-F78D-4E5B-B971-C370BE640435}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49C1F82-64AA-4A6B-8B27-CCBFA55F5A3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Swiss" sheetId="13" r:id="rId4"/>
     <sheet name="Portugal" sheetId="14" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="15" r:id="rId6"/>
+    <sheet name="Italy" sheetId="16" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="29">
   <si>
     <t>Wg</t>
   </si>
@@ -119,6 +120,12 @@
   </si>
   <si>
     <t>Slovakia Market</t>
+  </si>
+  <si>
+    <t>Italy Market</t>
+  </si>
+  <si>
+    <t>NGC-3145/T2446</t>
   </si>
 </sst>
 </file>
@@ -1127,8 +1134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{671C3DF5-8436-45A1-A351-9B54BD3D53AB}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1238,4 +1245,121 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A9F308B-0F0E-43B3-A99A-F36FE6B0890F}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.88671875" customWidth="1"/>
+    <col min="2" max="2" width="24.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_RBus_Printers_MZX_Panels.xlsx
+++ b/Test Data/Gallery_RBus_Printers_MZX_Panels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49C1F82-64AA-4A6B-8B27-CCBFA55F5A3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B921501-F5C6-4F7A-983D-68932686CA7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Portugal" sheetId="14" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="15" r:id="rId6"/>
     <sheet name="Italy" sheetId="16" r:id="rId7"/>
+    <sheet name="Spain" sheetId="17" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="31">
   <si>
     <t>Wg</t>
   </si>
@@ -126,6 +127,12 @@
   </si>
   <si>
     <t>NGC-3145/T2446</t>
+  </si>
+  <si>
+    <t>Spain Market</t>
+  </si>
+  <si>
+    <t>NGC-3103/T2056</t>
   </si>
 </sst>
 </file>
@@ -1251,8 +1258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A9F308B-0F0E-43B3-A99A-F36FE6B0890F}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1362,4 +1369,120 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4589E7-7E87-44D9-84D7-E0E518708DB6}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_RBus_Printers_MZX_Panels.xlsx
+++ b/Test Data/Gallery_RBus_Printers_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B921501-F5C6-4F7A-983D-68932686CA7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26F74B2-0C21-4EF0-9A40-91DFA7A63E54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Slovakia" sheetId="15" r:id="rId6"/>
     <sheet name="Italy" sheetId="16" r:id="rId7"/>
     <sheet name="Spain" sheetId="17" r:id="rId8"/>
+    <sheet name="Croatia" sheetId="18" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="33">
   <si>
     <t>Wg</t>
   </si>
@@ -133,6 +134,12 @@
   </si>
   <si>
     <t>NGC-3103/T2056</t>
+  </si>
+  <si>
+    <t>NGC-3139/T2488</t>
+  </si>
+  <si>
+    <t>Croatia Market</t>
   </si>
 </sst>
 </file>
@@ -1375,7 +1382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4589E7-7E87-44D9-84D7-E0E518708DB6}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -1485,4 +1492,121 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE9BAF1-FFB9-4D34-90E8-80826BAF5279}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.88671875" customWidth="1"/>
+    <col min="2" max="2" width="24.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_RBus_Printers_MZX_Panels.xlsx
+++ b/Test Data/Gallery_RBus_Printers_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26F74B2-0C21-4EF0-9A40-91DFA7A63E54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93912B6-3274-4BEE-90DE-5FFF5925CEC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Italy" sheetId="16" r:id="rId7"/>
     <sheet name="Spain" sheetId="17" r:id="rId8"/>
     <sheet name="Croatia" sheetId="18" r:id="rId9"/>
+    <sheet name="Greece" sheetId="19" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="35">
   <si>
     <t>Wg</t>
   </si>
@@ -140,6 +141,12 @@
   </si>
   <si>
     <t>Croatia Market</t>
+  </si>
+  <si>
+    <t>NGC-4119/T3190</t>
+  </si>
+  <si>
+    <t>Greece Market</t>
   </si>
 </sst>
 </file>
@@ -676,6 +683,123 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A1CA34F-BA06-4E81-AD1C-A53CBFCDDC59}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.88671875" customWidth="1"/>
+    <col min="2" max="2" width="24.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD108E1-815C-407A-BACE-2843BB3D7F68}">
   <dimension ref="A1:D14"/>
@@ -1498,8 +1622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE9BAF1-FFB9-4D34-90E8-80826BAF5279}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test Data/Gallery_RBus_Printers_MZX_Panels.xlsx
+++ b/Test Data/Gallery_RBus_Printers_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93912B6-3274-4BEE-90DE-5FFF5925CEC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FC64C0-AC77-42BA-A52A-25E803AE6813}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -23,6 +23,9 @@
     <sheet name="Spain" sheetId="17" r:id="rId8"/>
     <sheet name="Croatia" sheetId="18" r:id="rId9"/>
     <sheet name="Greece" sheetId="19" r:id="rId10"/>
+    <sheet name="Netherlands" sheetId="20" r:id="rId11"/>
+    <sheet name="Austria" sheetId="21" r:id="rId12"/>
+    <sheet name="Denmark" sheetId="22" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="41">
   <si>
     <t>Wg</t>
   </si>
@@ -147,6 +150,24 @@
   </si>
   <si>
     <t>Greece Market</t>
+  </si>
+  <si>
+    <t>NGC-3144/T2202</t>
+  </si>
+  <si>
+    <t>Netherlands Market</t>
+  </si>
+  <si>
+    <t>NGC-3817/T2309</t>
+  </si>
+  <si>
+    <t>Austria Market</t>
+  </si>
+  <si>
+    <t>NGC-2913/T2790</t>
+  </si>
+  <si>
+    <t>Denmark Market</t>
   </si>
 </sst>
 </file>
@@ -687,7 +708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A1CA34F-BA06-4E81-AD1C-A53CBFCDDC59}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -735,6 +756,357 @@
       </c>
       <c r="B4" s="3" t="s">
         <v>33</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78BF67D1-A912-4022-B6DD-5C076263E01B}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.88671875" customWidth="1"/>
+    <col min="2" max="2" width="24.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{273B4D9D-1496-4BE6-88C8-014AB786D432}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.88671875" customWidth="1"/>
+    <col min="2" max="2" width="24.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0277600-18B4-40FB-97EA-B0B8F8D0E0E3}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.88671875" customWidth="1"/>
+    <col min="2" max="2" width="24.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_RBus_Printers_MZX_Panels.xlsx
+++ b/Test Data/Gallery_RBus_Printers_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FC64C0-AC77-42BA-A52A-25E803AE6813}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACFF05B-5443-40F2-A8FA-B4ABBF5B6077}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="15" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -26,6 +26,9 @@
     <sheet name="Netherlands" sheetId="20" r:id="rId11"/>
     <sheet name="Austria" sheetId="21" r:id="rId12"/>
     <sheet name="Denmark" sheetId="22" r:id="rId13"/>
+    <sheet name="Russia" sheetId="24" r:id="rId14"/>
+    <sheet name="Finland" sheetId="25" r:id="rId15"/>
+    <sheet name="Hungary" sheetId="26" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="47">
   <si>
     <t>Wg</t>
   </si>
@@ -168,6 +171,24 @@
   </si>
   <si>
     <t>Denmark Market</t>
+  </si>
+  <si>
+    <t>NGC-2929/T2925</t>
+  </si>
+  <si>
+    <t>Russia Market</t>
+  </si>
+  <si>
+    <t>NGC-3130/T2889</t>
+  </si>
+  <si>
+    <t>Finland Market</t>
+  </si>
+  <si>
+    <t>NGC-3104/T2998</t>
+  </si>
+  <si>
+    <t>Hungary Market</t>
   </si>
 </sst>
 </file>
@@ -825,7 +846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78BF67D1-A912-4022-B6DD-5C076263E01B}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1172,6 +1193,354 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE5F826F-31A7-413E-B5BD-4BAA1DB8139B}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C14A9570-A9F6-4C57-A7DF-397099A26673}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E5195B-10AE-4163-96B3-34FC2D81EAD5}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD108E1-815C-407A-BACE-2843BB3D7F68}">
   <dimension ref="A1:D14"/>

--- a/Test Data/Gallery_RBus_Printers_MZX_Panels.xlsx
+++ b/Test Data/Gallery_RBus_Printers_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACFF05B-5443-40F2-A8FA-B4ABBF5B6077}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF5A6C5-0C40-4693-AB15-1D93DF4658F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="15" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -29,6 +29,8 @@
     <sheet name="Russia" sheetId="24" r:id="rId14"/>
     <sheet name="Finland" sheetId="25" r:id="rId15"/>
     <sheet name="Hungary" sheetId="26" r:id="rId16"/>
+    <sheet name="Norway" sheetId="27" r:id="rId17"/>
+    <sheet name="Poland" sheetId="28" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="51">
   <si>
     <t>Wg</t>
   </si>
@@ -189,6 +191,18 @@
   </si>
   <si>
     <t>Hungary Market</t>
+  </si>
+  <si>
+    <t>NGC-2931/T3078</t>
+  </si>
+  <si>
+    <t>Norway Market</t>
+  </si>
+  <si>
+    <t>NGC-2920/T3113</t>
+  </si>
+  <si>
+    <t>Poland Market</t>
   </si>
 </sst>
 </file>
@@ -1429,7 +1443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E5195B-10AE-4163-96B3-34FC2D81EAD5}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -1476,6 +1490,240 @@
       </c>
       <c r="B4" s="3" t="s">
         <v>45</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAE47DA1-01A3-4F5B-BD30-4B820EDABB03}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.88671875" customWidth="1"/>
+    <col min="2" max="2" width="24.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{762E11AB-586B-4997-B354-37F940DCD5DC}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.88671875" customWidth="1"/>
+    <col min="2" max="2" width="24.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_RBus_Printers_MZX_Panels.xlsx
+++ b/Test Data/Gallery_RBus_Printers_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF5A6C5-0C40-4693-AB15-1D93DF4658F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD774CAF-F8DA-4D29-93ED-018B12CA2FBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="18" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <sheet name="Hungary" sheetId="26" r:id="rId16"/>
     <sheet name="Norway" sheetId="27" r:id="rId17"/>
     <sheet name="Poland" sheetId="28" r:id="rId18"/>
+    <sheet name="UK" sheetId="29" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="53">
   <si>
     <t>Wg</t>
   </si>
@@ -203,6 +204,12 @@
   </si>
   <si>
     <t>Poland Market</t>
+  </si>
+  <si>
+    <t>NGC-2741/T3349</t>
+  </si>
+  <si>
+    <t>UK Market</t>
   </si>
 </sst>
 </file>
@@ -1559,7 +1566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAE47DA1-01A3-4F5B-BD30-4B820EDABB03}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -1789,6 +1796,123 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCEE633-B126-4E5F-889F-C303E215DD79}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.88671875" customWidth="1"/>
+    <col min="2" max="2" width="24.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD108E1-815C-407A-BACE-2843BB3D7F68}">
   <dimension ref="A1:D14"/>
